--- a/References.xlsx
+++ b/References.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhihuitang/repo/python/Provsvar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D62EDA-B549-6742-8812-D0E482417C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA16CDE-FF22-7D40-8759-3119A2E369C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="680" windowWidth="28040" windowHeight="17440" xr2:uid="{DBE3080E-B9F2-3742-A561-42170D0095D6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Min</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>P--PTH (Paratyrin) (pmol/L)</t>
-  </si>
-  <si>
-    <t>Datum</t>
   </si>
   <si>
     <t>P--Cystatin C (mg/L)</t>
@@ -502,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37641AEF-A466-714D-B948-CFC59032FB63}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,90 +522,96 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>21</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.15</v>
       </c>
       <c r="C5">
-        <v>190</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2.15</v>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1.1499999999999999</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.33</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.0499999999999998</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -619,133 +622,133 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>1.6</v>
       </c>
       <c r="C11">
-        <v>999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12">
+        <v>0.7</v>
+      </c>
+      <c r="C12">
         <v>1.6</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0.7</v>
       </c>
       <c r="C13">
-        <v>1.6</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="C15">
-        <v>1.1000000000000001</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>3.5</v>
       </c>
       <c r="C16">
-        <v>4.5999999999999996</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="C17">
-        <v>8.8000000000000007</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>4.2</v>
+        <v>134</v>
       </c>
       <c r="C18">
-        <v>5.7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>134</v>
+        <v>0.39</v>
       </c>
       <c r="C19">
-        <v>170</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.39</v>
+        <v>82</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>82</v>
-      </c>
-      <c r="C21">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -754,29 +757,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B5">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(ISNUMBER(B6),OR(B6&lt;2.15, B6&gt;2.5))</formula>
+      <formula>AND(ISNUMBER(B5),OR(B5&lt;2.15, B5&gt;2.5))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A23">
     <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="yesterday">
       <formula>FLOOR(A2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A24">
+  <conditionalFormatting sqref="A2:A23">
     <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/References.xlsx
+++ b/References.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhihuitang/repo/python/Provsvar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA16CDE-FF22-7D40-8759-3119A2E369C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA5FBC-0220-CF45-BE82-F44DCA5C8B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="680" windowWidth="28040" windowHeight="17440" xr2:uid="{DBE3080E-B9F2-3742-A561-42170D0095D6}"/>
+    <workbookView xWindow="38400" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{DBE3080E-B9F2-3742-A561-42170D0095D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Min</t>
   </si>
@@ -50,15 +50,9 @@
     <t>S-ACE (E/L)</t>
   </si>
   <si>
-    <t>B--Erytrocyter (10(12)/L)</t>
-  </si>
-  <si>
     <t>B--Hemoglobin (Hb) (g/L)</t>
   </si>
   <si>
-    <t>B--EVF ()</t>
-  </si>
-  <si>
     <t>P--25-OH Vitamin D2+D3 (nmol/L)</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>vB-Ca,fri ABL/PNA (mmol/L)</t>
   </si>
   <si>
-    <t>P--Kreatinin (enz) (umol/L)</t>
-  </si>
-  <si>
     <t>Pt-eGFR(Krea)relativ (mL/min/1.7)</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>P--Natrium (mmol/L)</t>
   </si>
   <si>
-    <t>P-Glukos (PNA) (mmol/L)</t>
-  </si>
-  <si>
     <t>vB-Glukos ABL/PNA (mmol/L)</t>
   </si>
   <si>
@@ -104,17 +92,41 @@
     <t>Pt-eGFR(CysC)relativ (mL/min/1.7)</t>
   </si>
   <si>
-    <t>B--Leukocyter (10(9)/L)</t>
-  </si>
-  <si>
     <t>B--MCV (fL)</t>
+  </si>
+  <si>
+    <t>B--Metamyelocyter (x10(9)/L)</t>
+  </si>
+  <si>
+    <t>B--Myelocyter (x10(9)/L)</t>
+  </si>
+  <si>
+    <t>B--EVF</t>
+  </si>
+  <si>
+    <t>P--Kreatinin (enz) (mikromol/L)</t>
+  </si>
+  <si>
+    <t>B--Leukocyter (x10(9)/L)</t>
+  </si>
+  <si>
+    <t>B--Erytrocyter (x10(12)/L)</t>
+  </si>
+  <si>
+    <t>P--Glukos (mmol/L)</t>
+  </si>
+  <si>
+    <t>B--Trombocyter (x10(9)/L)</t>
+  </si>
+  <si>
+    <t>B--Neutrofila granulocyter (x10(9)/L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +135,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,14 +166,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37641AEF-A466-714D-B948-CFC59032FB63}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,7 +546,7 @@
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -521,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -532,9 +568,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -543,9 +579,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>48</v>
@@ -554,9 +590,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>2.15</v>
@@ -565,7 +601,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -576,9 +612,9 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -587,9 +623,9 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -598,9 +634,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>80</v>
@@ -609,9 +645,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -620,9 +656,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>1.6</v>
@@ -631,9 +667,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0.7</v>
@@ -642,9 +678,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0.7</v>
@@ -653,9 +689,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0.6</v>
@@ -664,9 +700,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>3.5</v>
@@ -675,9 +711,9 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
+    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B16">
         <v>3.5</v>
@@ -685,10 +721,11 @@
       <c r="C16">
         <v>8.8000000000000007</v>
       </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>4.2</v>
@@ -699,7 +736,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>134</v>
@@ -710,7 +747,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0.39</v>
@@ -721,7 +758,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>82</v>
@@ -732,12 +769,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>137</v>
+      </c>
+      <c r="C21">
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -748,13 +791,57 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
         <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>145</v>
+      </c>
+      <c r="C24">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>1.6</v>
+      </c>
+      <c r="C25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>-999</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>-999</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -763,12 +850,12 @@
       <formula>AND(ISNUMBER(B5),OR(B5&lt;2.15, B5&gt;2.5))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A23">
+  <conditionalFormatting sqref="A2:A27">
     <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="yesterday">
       <formula>FLOOR(A2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A23">
+  <conditionalFormatting sqref="A2:A27">
     <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/References.xlsx
+++ b/References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhihuitang/repo/python/Provsvar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA5FBC-0220-CF45-BE82-F44DCA5C8B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5EA410-EE60-464D-BE24-87948AE37721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{DBE3080E-B9F2-3742-A561-42170D0095D6}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>B--Hemoglobin (Hb) (g/L)</t>
   </si>
   <si>
-    <t>P--25-OH Vitamin D2+D3 (nmol/L)</t>
-  </si>
-  <si>
     <t>S-1,25-OH-Vitamin D (pmol/L)</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>B--Neutrofila granulocyter (x10(9)/L)</t>
+  </si>
+  <si>
+    <t>P--25-OH Vitamin D (nmol/L)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>48</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>2.15</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>80</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>1.6</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0.7</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0.7</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0.6</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>3.5</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>3.5</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>4.2</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0.39</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>82</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>137</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>145</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>1.6</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>-999</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>-999</v>

--- a/References.xlsx
+++ b/References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhihuitang/repo/python/Provsvar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5EA410-EE60-464D-BE24-87948AE37721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9285E9EE-62E2-8C4F-813F-30032F506FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{DBE3080E-B9F2-3742-A561-42170D0095D6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Min</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>P--25-OH Vitamin D (nmol/L)</t>
+  </si>
+  <si>
+    <t>P--ASAT (mikrokat/L)</t>
+  </si>
+  <si>
+    <t>P--ALAT (mikrokat/L)</t>
+  </si>
+  <si>
+    <t>P--Bilirubin (mikromol/L)</t>
+  </si>
+  <si>
+    <t>P--Alkaliskt fosfatas(ALP) (mikrokat/L)</t>
   </si>
 </sst>
 </file>
@@ -158,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -168,8 +180,21 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="8"/>
+        <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="8"/>
       </right>
@@ -181,20 +206,225 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="11">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -236,6 +466,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D64844A4-8F58-B24F-B0DB-D12187659F6E}" name="Table1" displayName="Table1" ref="A1:C31" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C31" xr:uid="{A9FF0DC8-6663-2849-9C38-CB34E7C8FE8B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{152887C7-EF32-D343-A4D8-D37F7599C665}" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8C355ECC-77DE-9E49-A6D2-98E42904824B}" name="Min" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DFE9499B-A2EC-D04F-BF63-81C0162C27B7}" name="Max" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,330 +777,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37641AEF-A466-714D-B948-CFC59032FB63}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>50</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>48</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>2.15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>1.33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>80</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>80</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1.6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>1.6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0.7</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.6</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>3.5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>3.5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>4.2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>5.7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>134</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0.39</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>82</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>137</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>145</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>1.6</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>5.9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>-999</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>-999</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>AND(ISNUMBER(B5),OR(B5&lt;2.15, B5&gt;2.5))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A27">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="yesterday">
+  <conditionalFormatting sqref="A2:A11">
+    <cfRule type="timePeriod" dxfId="9" priority="4" timePeriod="yesterday">
       <formula>FLOOR(A2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A27">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  <conditionalFormatting sqref="A2:A11">
+    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A31">
+    <cfRule type="timePeriod" dxfId="7" priority="1" timePeriod="yesterday">
+      <formula>FLOOR(A12,1)=TODAY()-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A31">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>